--- a/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
+++ b/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,30 +522,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -557,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,14 +585,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
+++ b/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,285 @@
       </c>
       <c r="B5" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02982871381630952</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.30086238726629</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2340109939040181</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.92757177276943</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.2023308452166285</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.95633725273942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.169306809118499</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.18610882069008</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6667802442169024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.34106106452969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.504018196022507</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.50029598671055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.215664203801743</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.2417197837185</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.238481149154647</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.31023370101259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.370834130384118</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.78664347112487</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.819881473088953</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.8001302855283</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.84251233084203</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.52831270444468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.74751854203385</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.13941623860719</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.699670220088018</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.660264688906278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.979157537808404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.920579607436947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.909593130829765</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.035364591465026</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-5.19445768194213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.256696219640475</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5.413110287549483</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.45014813067527</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
+++ b/po_analysis_by_asin/B09RQ75FBH_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.02982871381630952</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.30086238726629</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.2340109939040181</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.92757177276943</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.2023308452166285</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.95633725273942</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>-1.169306809118499</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.18610882069008</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.6667802442169024</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.34106106452969</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.504018196022507</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.50029598671055</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.215664203801743</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.2417197837185</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.238481149154647</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.31023370101259</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.370834130384118</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.78664347112487</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.819881473088953</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.8001302855283</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.84251233084203</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.52831270444468</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.74751854203385</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.13941623860719</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>-4.699670220088018</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.660264688906278</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
-        <v>-4.979157537808404</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.920579607436947</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.909593130829765</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.035364591465026</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -844,12 +744,6 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>-5.19445768194213</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.256696219640475</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -857,12 +751,6 @@
       </c>
       <c r="B18" t="n">
         <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-5.413110287549483</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.45014813067527</v>
       </c>
     </row>
   </sheetData>
